--- a/public/docs/template_soal_ujian.xlsx
+++ b/public/docs/template_soal_ujian.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pepak\public\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Soal</t>
   </si>
@@ -65,7 +65,31 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>ini hany soal contoh silahkan dihapus sebelum memasukkan pertanyaan anda</t>
+    <t>ini hanya soal contoh silahkan dihapus sebelum memasukkan pertanyaan anda</t>
+  </si>
+  <si>
+    <t>Data Soal</t>
+  </si>
+  <si>
+    <t>Kode Jawaban benar</t>
+  </si>
+  <si>
+    <t>Isi kode jawaban A</t>
+  </si>
+  <si>
+    <t>Isi kode jawaban B</t>
+  </si>
+  <si>
+    <t>Isi kode jawaban C</t>
+  </si>
+  <si>
+    <t>Isi kode jawaban D</t>
+  </si>
+  <si>
+    <t>(keterangan penjelasan kenapa jawaban tersebut adalah jawaban benar yang harus dipilih oleh murid)</t>
+  </si>
+  <si>
+    <t>Baris ini tidak akan masuk ke sistem</t>
   </si>
 </sst>
 </file>
@@ -89,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +126,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,16 +162,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -431,9 +483,10 @@
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,39 +509,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -497,7 +567,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -506,7 +576,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -515,7 +585,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -524,7 +594,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -533,7 +603,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -542,7 +612,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -551,7 +621,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -560,7 +630,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -569,7 +639,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -578,7 +648,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -587,7 +657,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -596,7 +666,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
